--- a/storage/app/public/csv_uploads/Plantilla_Excel.xlsx
+++ b/storage/app/public/csv_uploads/Plantilla_Excel.xlsx
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t>tipus de projecte</t>
+    <t>Tipus de projecte</t>
   </si>
   <si>
     <t>El treball és:</t>
@@ -130,7 +130,7 @@
     <tableColumn name="Company 1 projecte - Escriu el Email (Monlau) complert del teu company" id="8"/>
     <tableColumn name="Company 2 projecte - Escriu el Email (Monlau) complert del teu company  (deixa aquest espai en blanc si no sou 3 persones)" id="9"/>
     <tableColumn name="Títol del projecte " id="10"/>
-    <tableColumn name="tipus de projecte" id="11"/>
+    <tableColumn name="Tipus de projecte1" id="11"/>
     <tableColumn name="El treball és:" id="12"/>
     <tableColumn name="Monlautech - Escull l'equip del que formes part." id="13"/>
     <tableColumn name="Realitza una petita descripció del que has fet al teu projecte. (UTILITZA VOCAVULARI TÈCNIC)" id="14"/>

--- a/storage/app/public/csv_uploads/Plantilla_Excel.xlsx
+++ b/storage/app/public/csv_uploads/Plantilla_Excel.xlsx
@@ -19,7 +19,7 @@
     <t>Correo electrónico</t>
   </si>
   <si>
-    <t>Nombre</t>
+    <t>Nom:</t>
   </si>
   <si>
     <t>El teu nom és:</t>
@@ -121,7 +121,7 @@
   <autoFilter ref="A1:N174"/>
   <tableColumns count="14">
     <tableColumn name="Correo electrónico" id="1"/>
-    <tableColumn name="Nombre" id="2"/>
+    <tableColumn name="Nom:" id="2"/>
     <tableColumn name="El teu nom és:" id="3"/>
     <tableColumn name="El teu 1r cognom és:" id="4"/>
     <tableColumn name="El teu 2n cognom és:" id="5"/>
